--- a/企画書、設定案、やることリスト、他/進化図一覧.xlsx
+++ b/企画書、設定案、やることリスト、他/進化図一覧.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="27900" windowHeight="12825"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="14">
   <si>
     <t>攻撃系</t>
     <rPh sb="0" eb="2">
@@ -47,12 +47,57 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>━→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>level:0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>level:1</t>
+  </si>
+  <si>
+    <t>level:2</t>
+  </si>
+  <si>
+    <t>level:3</t>
+  </si>
+  <si>
+    <t>level:4</t>
+  </si>
+  <si>
+    <t>level:5</t>
+  </si>
+  <si>
+    <t>一つの画像が48*48Pixelになります</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,16 +122,69 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -174,13 +272,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,6 +358,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -219,6 +372,138 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -240,14 +525,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485718</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114243</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -284,13 +569,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>673875</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>169050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>445218</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>111843</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -328,13 +613,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4725</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>14250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>461868</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>128493</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -372,13 +657,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>11850</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>2325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>468993</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>116568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -416,14 +701,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>18975</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>171375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476118</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104643</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -460,14 +745,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>683325</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>7050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>454668</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>121293</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -504,14 +789,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>33225</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>166575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>490368</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>99843</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -548,14 +833,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>11775</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>21300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>468918</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>135543</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>135544</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -592,14 +877,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9375</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>18900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>466518</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133143</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133144</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -634,16 +919,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>683250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6975</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>6975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>464118</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>121218</xdr:rowOff>
+      <xdr:colOff>454593</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121219</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -666,7 +951,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3435975" y="2407275"/>
+          <a:off x="3426450" y="1731000"/>
           <a:ext cx="457143" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -680,14 +965,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23625</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>33150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>480768</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>147393</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>147392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -722,15 +1007,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>21225</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11700</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>2175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>478368</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>468843</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>116418</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -754,7 +1039,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2078625" y="2402475"/>
+          <a:off x="3440700" y="2421525"/>
           <a:ext cx="457143" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -768,14 +1053,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28350</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>18825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485493</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133068</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133067</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -811,15 +1096,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>16425</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>6900</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>6900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>473568</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>121143</xdr:rowOff>
+      <xdr:colOff>464043</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121144</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -842,7 +1127,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2759625" y="2407200"/>
+          <a:off x="2750100" y="1730925"/>
           <a:ext cx="457143" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -856,14 +1141,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>14025</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>4500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>471168</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>118743</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>118744</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -900,14 +1185,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>11625</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>11625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>468768</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>125868</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>125869</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -944,13 +1229,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>675975</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>447318</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123468</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -988,13 +1273,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>6825</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>6825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>463968</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>121068</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1032,13 +1317,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>13950</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>4425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>471093</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>118668</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1075,15 +1360,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>21075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2025</xdr:rowOff>
+      <xdr:colOff>11550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>478218</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>116268</xdr:rowOff>
+      <xdr:colOff>468693</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1106,7 +1391,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3450075" y="1030725"/>
+          <a:off x="3440550" y="1049775"/>
           <a:ext cx="457143" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1120,13 +1405,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9150</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>9150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466293</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>123393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1164,13 +1449,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>683025</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>6750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>454368</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>120993</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1207,15 +1492,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4350</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>13875</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>13875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>461493</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>128118</xdr:rowOff>
+      <xdr:colOff>471018</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>128119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1238,71 +1523,71 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2747550" y="1728375"/>
-          <a:ext cx="457143" cy="457143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+          <a:off x="2757075" y="1052100"/>
+          <a:ext cx="457143" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>459093</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>116193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2745150" y="2421300"/>
+          <a:ext cx="457143" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1950</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>11475</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>459093</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>125718</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2059350" y="1725975"/>
-          <a:ext cx="457143" cy="457143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>18600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>475743</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>456693</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>123318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1326,27 +1611,27 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2761800" y="1037775"/>
-          <a:ext cx="457143" cy="457143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6675</xdr:colOff>
-      <xdr:row>10</xdr:row>
+          <a:off x="2056950" y="2428425"/>
+          <a:ext cx="457143" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16200</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>6675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>463818</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>473343</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>120918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1370,7 +1655,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3435675" y="1721175"/>
+          <a:off x="4131000" y="2426025"/>
           <a:ext cx="457143" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1383,15 +1668,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>13800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>4275</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>23325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>470943</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>137568</xdr:rowOff>
+      <xdr:colOff>461418</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137569</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1414,7 +1699,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4128600" y="2423625"/>
+          <a:off x="4119075" y="1747350"/>
           <a:ext cx="457143" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1428,14 +1713,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>11400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>468543</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>116118</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116117</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1472,14 +1757,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9000</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>161400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466143</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>94668</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1516,14 +1801,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>682875</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>16125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>454218</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>130368</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>130367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1560,14 +1845,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>476193</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114243</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1604,14 +1889,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>673875</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>7125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>445218</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>121368</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1648,14 +1933,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>14250</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>14250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>471393</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>128493</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128494</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1692,13 +1977,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>11850</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>11850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>468993</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>126093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1736,14 +2021,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9450</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>9450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>466593</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123693</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123694</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1780,14 +2065,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>7050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>16575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>464193</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>130818</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1823,15 +2108,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>4650</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33225</xdr:rowOff>
+      <xdr:colOff>15856</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>461793</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>147468</xdr:rowOff>
+      <xdr:colOff>472999</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>113850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1854,8 +2139,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8234250" y="4338525"/>
-          <a:ext cx="457143" cy="457143"/>
+          <a:off x="8218562" y="4269048"/>
+          <a:ext cx="457143" cy="450420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1868,14 +2153,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>21300</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>478443</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>116493</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116494</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1912,14 +2197,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>18900</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>9375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>476043</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123618</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123619</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1956,14 +2241,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>26025</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>16500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>483168</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>130743</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130744</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2000,14 +2285,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>14100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>4575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>471243</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>118818</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>118819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2044,14 +2329,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>2175</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>11700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>459318</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>125943</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125944</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2086,16 +2371,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>637950</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>409293</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104493</xdr:rowOff>
+      <xdr:colOff>7619</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>464762</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>125225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2118,8 +2403,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9553350" y="342675"/>
-          <a:ext cx="457143" cy="457143"/>
+          <a:off x="9577443" y="662603"/>
+          <a:ext cx="457143" cy="448739"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2132,14 +2417,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>6900</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>6900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>464043</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>121143</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121144</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2174,16 +2459,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>4500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>14025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>461643</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>128268</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>117063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2206,8 +2491,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7548300" y="6052875"/>
-          <a:ext cx="457143" cy="457143"/>
+          <a:off x="8207206" y="5997966"/>
+          <a:ext cx="457143" cy="450420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2220,13 +2505,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>2100</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>21150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>459243</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>135393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2264,14 +2549,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>666450</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>18750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>437793</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>132993</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>132994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2308,13 +2593,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>6825</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>6825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>463968</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>121068</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2350,16 +2635,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>680700</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>156825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>452043</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>99618</xdr:rowOff>
+      <xdr:colOff>13950</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>23475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>471093</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>137718</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2382,7 +2667,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9596100" y="7748250"/>
+          <a:off x="9615150" y="7843500"/>
           <a:ext cx="457143" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2396,14 +2681,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>678300</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>11550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>449643</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>125793</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2440,14 +2725,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>18675</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>475818</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123393</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123394</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2484,13 +2769,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>6750</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>168675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>463893</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>111468</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2526,16 +2811,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>671100</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>156750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>442443</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>99543</xdr:rowOff>
+      <xdr:colOff>23400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>13875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>480543</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>128118</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2558,7 +2843,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8900700" y="7233825"/>
+          <a:off x="8938800" y="7319550"/>
           <a:ext cx="457143" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2572,14 +2857,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>11475</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>11475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>468618</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>125718</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2616,14 +2901,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>18600</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>475743</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123318</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123319</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2660,14 +2945,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>682950</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>16200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>454293</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>130443</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>130444</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2704,13 +2989,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>671025</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>4275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>442368</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>118518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2747,15 +3032,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>640050</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>154275</xdr:rowOff>
+      <xdr:colOff>678150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>163800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>411393</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>97068</xdr:rowOff>
+      <xdr:colOff>449493</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>106593</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2778,7 +3063,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9555450" y="6717000"/>
+          <a:off x="9593550" y="6783675"/>
           <a:ext cx="457143" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2792,13 +3077,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9000</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>170925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>466143</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>113718</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2836,13 +3121,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>6600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>6600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>463743</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>120843</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2880,14 +3165,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>457143</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114243</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2924,14 +3209,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>7125</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>169050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>464268</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>111843</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>111842</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2968,13 +3253,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>23775</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>33300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>480918</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>147543</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3012,13 +3297,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>30900</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>30900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>488043</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>145143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3056,13 +3341,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>685725</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>18975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>457068</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>133218</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3100,14 +3385,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>16575</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>168975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>473718</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>111768</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>111767</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3144,14 +3429,14 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>14175</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>14175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>471318</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>128418</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>128417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3188,14 +3473,14 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>21300</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>21300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>478443</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>135543</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>135542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3218,7 +3503,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15108900" y="1564350"/>
+          <a:off x="15108900" y="1573875"/>
           <a:ext cx="457143" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3232,14 +3517,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9375</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>9375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>466518</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123618</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123617</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3562,424 +3847,1102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="22" max="22" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="10"/>
+      <c r="L1" s="11"/>
       <c r="R1" s="8"/>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
       <c r="X1" s="5"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
       <c r="R2" s="8"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="13"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="J3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="8"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="14"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>12</v>
+      </c>
       <c r="J4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="55" t="s">
+        <v>12</v>
+      </c>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="16"/>
       <c r="J5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="18"/>
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B6" s="20"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="16"/>
       <c r="J6" s="2"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="16"/>
       <c r="R6" s="2"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="18"/>
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B7" s="20"/>
+      <c r="C7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="16"/>
       <c r="J7" s="2"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="16"/>
       <c r="R7" s="2"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="18"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B8" s="20"/>
+      <c r="C8" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="16"/>
       <c r="J8" s="2"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="16"/>
       <c r="R8" s="2"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="18"/>
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B9" s="20"/>
+      <c r="C9" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="16"/>
       <c r="J9" s="2"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="2"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="18"/>
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B10" s="20"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="16"/>
       <c r="J10" s="2"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="2"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="18"/>
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="16"/>
       <c r="J11" s="2"/>
+      <c r="L11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="16"/>
       <c r="R11" s="2"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="18"/>
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B12" s="20"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="16"/>
       <c r="J12" s="2"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="16"/>
       <c r="R12" s="2"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="18"/>
       <c r="X12" s="2"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B13" s="20"/>
+      <c r="C13" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="16"/>
       <c r="J13" s="2"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="16"/>
       <c r="R13" s="2"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="18"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B14" s="20"/>
+      <c r="C14" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="16"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="3"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
+      <c r="T14" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="42"/>
+      <c r="V14" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="18"/>
       <c r="X14" s="2"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B15" s="20"/>
+      <c r="C15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="16"/>
       <c r="J15" s="2"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="16"/>
       <c r="R15" s="2"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="18"/>
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B16" s="20"/>
+      <c r="C16" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="16"/>
       <c r="J16" s="2"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="2"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="18"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="20"/>
+      <c r="C17" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="16"/>
       <c r="J17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="3"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="18"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="3"/>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B18" s="20"/>
+      <c r="C18" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="16"/>
+      <c r="J18" s="2"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="16"/>
       <c r="R18" s="2"/>
       <c r="S18" s="7"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="18"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B19" s="20"/>
+      <c r="C19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="16"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="3"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="V19" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="W19" s="18"/>
+      <c r="X19" s="2"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B20" s="20"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="16"/>
       <c r="J20" s="2"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="16"/>
       <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="J21" s="2"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="3"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="16"/>
       <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="S21" s="7"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="20"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="16"/>
       <c r="J22" s="2"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B23" s="20"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="16"/>
+      <c r="J23" s="2"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="16"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B24" s="20"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="16"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="3"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B25" s="20"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="16"/>
       <c r="J25" s="2"/>
+      <c r="L25" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="38"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="16"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="J26" s="2"/>
+    <row r="26" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="3"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="16"/>
       <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="T26" s="9"/>
+    </row>
+    <row r="27" spans="1:24" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="20"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="16"/>
       <c r="J27" s="2"/>
-      <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="3"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="3"/>
+      <c r="V27" s="57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B28" s="20"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="16"/>
+      <c r="J28" s="2"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="16"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B29" s="20"/>
+      <c r="C29" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="16"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="3"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B30" s="20"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="16"/>
       <c r="J30" s="2"/>
+      <c r="L30" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" s="24"/>
+      <c r="N30" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" s="38"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="16"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="J31" s="2"/>
+    <row r="31" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="3"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="16"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="20"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="16"/>
       <c r="J32" s="2"/>
-      <c r="R32" s="2"/>
-    </row>
-    <row r="33" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="3"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B33" s="20"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="16"/>
+      <c r="J33" s="2"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="16"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B34" s="20"/>
+      <c r="C34" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="16"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="3"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B35" s="20"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="16"/>
       <c r="J35" s="2"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="38"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="16"/>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="J36" s="2"/>
+    <row r="36" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="3"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="16"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="20"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="16"/>
       <c r="J37" s="2"/>
-      <c r="R37" s="2"/>
-    </row>
-    <row r="38" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="3"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B38" s="20"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="16"/>
+      <c r="J38" s="2"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="16"/>
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="J39" s="5"/>
+      <c r="B39" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="G39" s="16"/>
+      <c r="J39" s="2"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="16"/>
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B40" s="20"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="16"/>
       <c r="J40" s="2"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O40" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="16"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="J41" s="2"/>
+    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="3"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="16"/>
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="J42" s="2"/>
+      <c r="J42" s="5"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="30"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="16"/>
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J43" s="2"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="30"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="16"/>
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J44" s="2"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="N44" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="38"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="16"/>
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J45" s="2"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="30"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="16"/>
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J46" s="2"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="30"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="16"/>
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J47" s="2"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="N47" s="30"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="16"/>
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J48" s="2"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="30"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="16"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="10:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:18" x14ac:dyDescent="0.15">
       <c r="J49" s="2"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="3"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="30"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="2"/>
+    </row>
+    <row r="50" spans="10:18" x14ac:dyDescent="0.15">
+      <c r="J50" s="2"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="N50" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="10:18" x14ac:dyDescent="0.15">
+      <c r="J51" s="2"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="2"/>
+    </row>
+    <row r="52" spans="10:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J52" s="2"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/企画書、設定案、やることリスト、他/進化図一覧.xlsx
+++ b/企画書、設定案、やることリスト、他/進化図一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="18">
   <si>
     <t>攻撃系</t>
     <rPh sb="0" eb="2">
@@ -90,6 +90,22 @@
     <rPh sb="3" eb="5">
       <t>ガゾウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>━→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>━→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>|</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -330,7 +346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,6 +377,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,137 +521,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3850,7 +3869,7 @@
   <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3860,1088 +3879,1116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="55"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="11"/>
+      <c r="L1" s="55"/>
       <c r="R1" s="8"/>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="55"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
       <c r="X1" s="5"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
       <c r="R2" s="8"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="13"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="57"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
       <c r="X2" s="2"/>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="14"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="10"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="49" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="48" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="O4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="51" t="s">
         <v>12</v>
       </c>
       <c r="R4" s="8"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="56" t="s">
+      <c r="S4" s="11"/>
+      <c r="T4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="52" t="s">
+      <c r="V4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="55" t="s">
+      <c r="W4" s="51" t="s">
         <v>12</v>
       </c>
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="16"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="12"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="16"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="12"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="18"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="14"/>
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B6" s="20"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="12"/>
       <c r="J6" s="2"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="12"/>
       <c r="R6" s="2"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="18"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="14"/>
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B7" s="20"/>
-      <c r="C7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="12"/>
       <c r="J7" s="2"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="27" t="s">
+      <c r="L7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="2"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="18"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="14"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B8" s="20"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="16"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="12"/>
       <c r="J8" s="2"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="16"/>
+      <c r="L8" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="12"/>
       <c r="R8" s="2"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="18"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="14"/>
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B9" s="20"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="12"/>
       <c r="J9" s="2"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="16"/>
+      <c r="L9" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="20"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="12"/>
       <c r="R9" s="2"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="39" t="s">
+      <c r="T9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="U9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="44" t="s">
+      <c r="V9" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="18"/>
+      <c r="W9" s="14"/>
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B10" s="20"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="12"/>
       <c r="J10" s="2"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="2"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="18"/>
+      <c r="T10" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" s="38"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="14"/>
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="12"/>
       <c r="J11" s="2"/>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="39" t="s">
+      <c r="O11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="16"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="2"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="18"/>
+      <c r="T11" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U11" s="38"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="14"/>
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B12" s="20"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="12"/>
       <c r="J12" s="2"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="12"/>
       <c r="R12" s="2"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="18"/>
+      <c r="T12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" s="38"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="14"/>
       <c r="X12" s="2"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B13" s="20"/>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="16"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="12"/>
       <c r="J13" s="2"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="16"/>
+      <c r="L13" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="2"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="18"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="14"/>
       <c r="X13" s="2"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B14" s="20"/>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="16"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="12"/>
       <c r="J14" s="2"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="16"/>
+      <c r="L14" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="20"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="12"/>
       <c r="R14" s="2"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="31" t="s">
+      <c r="T14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="42"/>
-      <c r="V14" s="47" t="s">
+      <c r="U14" s="38"/>
+      <c r="V14" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="18"/>
+      <c r="W14" s="14"/>
       <c r="X14" s="2"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B15" s="20"/>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="12"/>
       <c r="J15" s="2"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="27" t="s">
+      <c r="L15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="39" t="s">
+      <c r="O15" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="16"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="2"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="18"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="14"/>
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B16" s="20"/>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="16"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="12"/>
       <c r="J16" s="2"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="12"/>
       <c r="R16" s="2"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="18"/>
+      <c r="T16" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="U16" s="38"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="14"/>
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="16"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="12"/>
       <c r="J17" s="2"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="13"/>
       <c r="R17" s="3"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="18"/>
+      <c r="T17" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U17" s="38"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="14"/>
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B18" s="20"/>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="16"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="12"/>
       <c r="J18" s="2"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="12"/>
       <c r="R18" s="2"/>
       <c r="S18" s="7"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="18"/>
+      <c r="T18" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="38"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="14"/>
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B19" s="20"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="12"/>
       <c r="J19" s="2"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="12"/>
       <c r="R19" s="2"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="39" t="s">
+      <c r="T19" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="U19" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="V19" s="44" t="s">
+      <c r="V19" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="W19" s="18"/>
+      <c r="W19" s="14"/>
       <c r="X19" s="2"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B20" s="20"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="12"/>
       <c r="J20" s="2"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="39" t="s">
+      <c r="L20" s="16"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="44" t="s">
+      <c r="P20" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="16"/>
+      <c r="Q20" s="12"/>
       <c r="R20" s="2"/>
       <c r="S20" s="7"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="18"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="14"/>
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="3"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="12"/>
       <c r="R21" s="2"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="18"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="14"/>
       <c r="X21" s="2"/>
     </row>
     <row r="22" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="20"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="12"/>
       <c r="J22" s="2"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="17"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="13"/>
       <c r="R22" s="3"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="17"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="13"/>
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B23" s="20"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="12"/>
       <c r="J23" s="2"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="12"/>
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B24" s="20"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="31" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="12"/>
       <c r="J24" s="2"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="12"/>
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B25" s="20"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="12"/>
       <c r="J25" s="2"/>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="35" t="s">
+      <c r="M25" s="20"/>
+      <c r="N25" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O25" s="38"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="16"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="12"/>
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="3"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="12"/>
       <c r="R26" s="2"/>
       <c r="T26" s="9"/>
     </row>
     <row r="27" spans="1:24" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="20"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="12"/>
       <c r="J27" s="2"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="17"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="13"/>
       <c r="R27" s="3"/>
-      <c r="V27" s="57" t="s">
+      <c r="V27" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B28" s="20"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="12"/>
       <c r="J28" s="2"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="12"/>
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B29" s="20"/>
-      <c r="C29" s="29" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="41" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="16"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="12"/>
       <c r="J29" s="2"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="12"/>
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B30" s="20"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="12"/>
       <c r="J30" s="2"/>
-      <c r="L30" s="21" t="s">
+      <c r="L30" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M30" s="24"/>
-      <c r="N30" s="35" t="s">
+      <c r="M30" s="20"/>
+      <c r="N30" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O30" s="38"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="16"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="12"/>
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="3"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="12"/>
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="20"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="12"/>
       <c r="J32" s="2"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="17"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="13"/>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B33" s="20"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="12"/>
       <c r="J33" s="2"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="12"/>
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B34" s="20"/>
-      <c r="C34" s="29" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="41" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="44" t="s">
+      <c r="F34" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="16"/>
+      <c r="G34" s="12"/>
       <c r="J34" s="2"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="12"/>
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B35" s="20"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="12"/>
       <c r="J35" s="2"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="35" t="s">
+      <c r="L35" s="19"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="38"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="16"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="12"/>
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="3"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="12"/>
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="20"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="12"/>
       <c r="J37" s="2"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="17"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="13"/>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B38" s="20"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="12"/>
       <c r="J38" s="2"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="12"/>
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="35" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="16"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="12"/>
       <c r="J39" s="2"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="12"/>
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B40" s="20"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="12"/>
       <c r="J40" s="2"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="35" t="s">
+      <c r="L40" s="16"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O40" s="39" t="s">
+      <c r="O40" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="16"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="12"/>
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="13"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="3"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="12"/>
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J42" s="5"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="26" t="s">
+      <c r="L42" s="16"/>
+      <c r="M42" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="30"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="16"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="12"/>
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J43" s="2"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="26" t="s">
+      <c r="L43" s="16"/>
+      <c r="M43" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N43" s="30"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="16"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="12"/>
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J44" s="2"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="25" t="s">
+      <c r="L44" s="16"/>
+      <c r="M44" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N44" s="35" t="s">
+      <c r="N44" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="38"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="16"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="12"/>
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J45" s="2"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="26" t="s">
+      <c r="L45" s="16"/>
+      <c r="M45" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="30"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="16"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="12"/>
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J46" s="2"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="26" t="s">
+      <c r="L46" s="16"/>
+      <c r="M46" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N46" s="30"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="16"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="12"/>
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J47" s="2"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="25" t="s">
+      <c r="L47" s="16"/>
+      <c r="M47" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N47" s="30"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="16"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="12"/>
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J48" s="2"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="26" t="s">
+      <c r="L48" s="16"/>
+      <c r="M48" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="30"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="16"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="12"/>
       <c r="R48" s="2"/>
     </row>
     <row r="49" spans="10:18" x14ac:dyDescent="0.15">
       <c r="J49" s="2"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="26" t="s">
+      <c r="L49" s="16"/>
+      <c r="M49" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="30"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="16"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="12"/>
       <c r="R49" s="2"/>
     </row>
     <row r="50" spans="10:18" x14ac:dyDescent="0.15">
       <c r="J50" s="2"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="25" t="s">
+      <c r="L50" s="16"/>
+      <c r="M50" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N50" s="35" t="s">
+      <c r="N50" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O50" s="39" t="s">
+      <c r="O50" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="16"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="12"/>
       <c r="R50" s="2"/>
     </row>
     <row r="51" spans="10:18" x14ac:dyDescent="0.15">
       <c r="J51" s="2"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="12"/>
       <c r="R51" s="2"/>
     </row>
     <row r="52" spans="10:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J52" s="2"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="17"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="13"/>
       <c r="R52" s="3"/>
     </row>
   </sheetData>
